--- a/experiment_stimuli/Block10.xlsx
+++ b/experiment_stimuli/Block10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frances\Desktop\sdt\experiment_stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B110F384-C918-4F37-81CC-E206C2907E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9BF1A6-43DF-46A9-B3A2-12502EEBABC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="366" yWindow="366" windowWidth="17172" windowHeight="11064" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>Block</t>
   </si>
@@ -94,13 +94,7 @@
     <t>The rainstorm was a logistical wrench.</t>
   </si>
   <si>
-    <t>mouse_key</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>left</t>
+    <t>correct_answer</t>
   </si>
 </sst>
 </file>
@@ -365,7 +359,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E1" sqref="E1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -407,8 +401,8 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
+      <c r="E2" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -424,8 +418,8 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
+      <c r="E3" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -441,8 +435,8 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -458,8 +452,8 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
+      <c r="E5" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -475,8 +469,8 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
+      <c r="E6" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -492,8 +486,8 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
+      <c r="E7" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -509,8 +503,8 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
+      <c r="E8" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -526,8 +520,8 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
+      <c r="E9" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -543,8 +537,8 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
+      <c r="E10" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -560,8 +554,8 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
+      <c r="E11" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -577,8 +571,8 @@
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
+      <c r="E12" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -594,8 +588,8 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
+      <c r="E13" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -611,8 +605,8 @@
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
+      <c r="E14" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -628,8 +622,8 @@
       <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
+      <c r="E15" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -645,8 +639,8 @@
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
+      <c r="E16" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -662,8 +656,8 @@
       <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
+      <c r="E17" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
